--- a/data/eth_api_data.xlsx
+++ b/data/eth_api_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2224"/>
+  <dimension ref="A1:L2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84976,6 +84976,120 @@
         <v>660693898437726</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>44451</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>127999235</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>278421</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>282523</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>524894</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>99951</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>13214076</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>1.0483103594039</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>3410.418612093746</v>
+      </c>
+      <c r="J2225" t="n">
+        <v>396253646970.6045</v>
+      </c>
+      <c r="K2225" t="n">
+        <v>9209589988362140</v>
+      </c>
+      <c r="L2225" t="n">
+        <v>685124551027663</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>128090204</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>339793</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>265046</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>583723</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>90969</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>13220488</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>1.02196404247019</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>3289.67733537419</v>
+      </c>
+      <c r="J2226" t="n">
+        <v>382842725006.6642</v>
+      </c>
+      <c r="K2226" t="n">
+        <v>9046425212819710</v>
+      </c>
+      <c r="L2226" t="n">
+        <v>662234887417244</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>128187960</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>263727</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>294341</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>531109</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>97756</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>13226949</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>1.03473273860389</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>3420.800690580512</v>
+      </c>
+      <c r="J2227" t="n">
+        <v>392567089075.9779</v>
+      </c>
+      <c r="K2227" t="n">
+        <v>8912492550247810</v>
+      </c>
+      <c r="L2227" t="n">
+        <v>663747616514149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/eth_api_data.xlsx
+++ b/data/eth_api_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2224"/>
+  <dimension ref="A1:L2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84976,6 +84976,120 @@
         <v>660693898437726</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>44451</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>127999235</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>278421</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>282523</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>524894</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>99951</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>13214076</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>1.0483103594039</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>3410.418612093746</v>
+      </c>
+      <c r="J2225" t="n">
+        <v>396253646970.6045</v>
+      </c>
+      <c r="K2225" t="n">
+        <v>9209589988362140</v>
+      </c>
+      <c r="L2225" t="n">
+        <v>685124551027663</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>128090204</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>339793</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>265046</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>583723</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>90969</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>13220488</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>1.02196404247019</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>3289.67733537419</v>
+      </c>
+      <c r="J2226" t="n">
+        <v>382842725006.6642</v>
+      </c>
+      <c r="K2226" t="n">
+        <v>9046425212819710</v>
+      </c>
+      <c r="L2226" t="n">
+        <v>662234887417244</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>128188124</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>263727</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>294341</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>531109</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>97920</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>13226949</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>1.03464858350156</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>3420.800690580512</v>
+      </c>
+      <c r="J2227" t="n">
+        <v>392567089075.9779</v>
+      </c>
+      <c r="K2227" t="n">
+        <v>8912492550247810</v>
+      </c>
+      <c r="L2227" t="n">
+        <v>663747616514149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/eth_api_data.xlsx
+++ b/data/eth_api_data.xlsx
@@ -85057,7 +85057,7 @@
         <v>44453</v>
       </c>
       <c r="B2227" t="n">
-        <v>128187960</v>
+        <v>128188124</v>
       </c>
       <c r="C2227" t="n">
         <v>263727</v>
@@ -85069,13 +85069,13 @@
         <v>531109</v>
       </c>
       <c r="F2227" t="n">
-        <v>97756</v>
+        <v>97920</v>
       </c>
       <c r="G2227" t="n">
         <v>13226949</v>
       </c>
       <c r="H2227" t="n">
-        <v>1.03473273860389</v>
+        <v>1.03464858350156</v>
       </c>
       <c r="I2227" t="n">
         <v>3420.800690580512</v>
